--- a/src/249E2430.xlsx
+++ b/src/249E2430.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aly\Documents\GitHub\ExamSystem\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E21ABE5-8A40-421D-8964-CFA477B7A1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93BD107-692E-434A-A4A6-050569F49E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>anne</t>
   </si>
@@ -40,24 +40,6 @@
     <t>97898</t>
   </si>
   <si>
-    <t>Sname</t>
-  </si>
-  <si>
-    <t>Sid</t>
-  </si>
-  <si>
-    <t>Sssn</t>
-  </si>
-  <si>
-    <t>Semail</t>
-  </si>
-  <si>
-    <t>SregistrationNumber</t>
-  </si>
-  <si>
-    <t>Spassword</t>
-  </si>
-  <si>
     <t>n@gmail.com</t>
   </si>
   <si>
@@ -65,6 +47,15 @@
   </si>
   <si>
     <t>l@gmail.com</t>
+  </si>
+  <si>
+    <t>3li</t>
+  </si>
+  <si>
+    <t>fhghf@g.com</t>
+  </si>
+  <si>
+    <t>1235</t>
   </si>
 </sst>
 </file>
@@ -113,7 +104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -452,12 +443,12 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="8.88671875" style="3"/>
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" customWidth="1"/>
@@ -465,90 +456,92 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
+      <c r="E1" s="2">
+        <v>22100</v>
+      </c>
+      <c r="F1">
+        <v>6546</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2">
-        <v>22100</v>
+        <v>22101</v>
       </c>
       <c r="F2">
-        <v>6546</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
-        <v>22101</v>
+        <v>22102</v>
       </c>
       <c r="F3">
-        <v>3555</v>
+        <v>5466</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>22102</v>
+        <v>22103</v>
       </c>
       <c r="F4">
-        <v>5466</v>
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{CBACD59A-BE98-4968-BC6B-3ED313D23E88}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{35723ED1-A667-4F73-991F-A4411996CC35}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{46F4AC2C-7368-4A19-A84D-46B7B8D02CA8}"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{CBACD59A-BE98-4968-BC6B-3ED313D23E88}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{35723ED1-A667-4F73-991F-A4411996CC35}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{46F4AC2C-7368-4A19-A84D-46B7B8D02CA8}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{C9F3C9DA-41F4-4BFD-B803-179B12492977}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>